--- a/Data/Input/With_observations/Zadatak 1/Zadatak_1.xlsx
+++ b/Data/Input/With_observations/Zadatak 1/Zadatak_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>HzD</t>
   </si>
@@ -50,12 +50,6 @@
     <t>y</t>
   </si>
   <si>
-    <t>FIX_X</t>
-  </si>
-  <si>
-    <t>FIX_Y</t>
-  </si>
-  <si>
     <t>Point_object</t>
   </si>
   <si>
@@ -96,6 +90,27 @@
   </si>
   <si>
     <t>sd_Vz</t>
+  </si>
+  <si>
+    <t>dh</t>
+  </si>
+  <si>
+    <t>sd_dh</t>
+  </si>
+  <si>
+    <t>d_dh</t>
+  </si>
+  <si>
+    <t>n_dh</t>
+  </si>
+  <si>
+    <t>FIX_2D</t>
+  </si>
+  <si>
+    <t>FIX_1D</t>
+  </si>
+  <si>
+    <t>h</t>
   </si>
 </sst>
 </file>
@@ -475,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -486,11 +501,12 @@
     <col min="1" max="1" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -504,21 +520,24 @@
         <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3">
         <v>393.97899999999998</v>
@@ -526,22 +545,20 @@
       <c r="D2" s="3">
         <v>419.03800000000001</v>
       </c>
-      <c r="E2" t="b">
-        <v>1</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
         <v>366.358</v>
@@ -549,22 +566,20 @@
       <c r="D3" s="3">
         <v>550.13800000000003</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
         <v>601.90300000000002</v>
@@ -572,22 +587,20 @@
       <c r="D4" s="3">
         <v>632.17100000000005</v>
       </c>
-      <c r="E4" t="b">
-        <v>1</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3">
         <v>705.48099999999999</v>
@@ -595,22 +608,20 @@
       <c r="D5" s="3">
         <v>538.63800000000003</v>
       </c>
-      <c r="E5" t="b">
-        <v>1</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>500</v>
@@ -618,22 +629,20 @@
       <c r="D6" s="3">
         <v>500</v>
       </c>
-      <c r="E6" t="b">
-        <v>0</v>
-      </c>
+      <c r="E6" s="3"/>
       <c r="F6" t="b">
         <v>0</v>
       </c>
-      <c r="G6" t="b">
+      <c r="H6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3">
         <v>585.02300000000002</v>
@@ -641,22 +650,20 @@
       <c r="D7" s="3">
         <v>548.60900000000004</v>
       </c>
-      <c r="E7" t="b">
-        <v>0</v>
-      </c>
+      <c r="E7" s="3"/>
       <c r="F7" t="b">
         <v>0</v>
       </c>
-      <c r="G7" t="b">
+      <c r="H7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" s="3">
         <v>585.02300000000002</v>
@@ -664,13 +671,11 @@
       <c r="D8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" t="b">
-        <v>0</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" t="b">
         <v>0</v>
       </c>
-      <c r="G8" t="b">
+      <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -682,20 +687,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -707,7 +712,7 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -722,21 +727,33 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4">
         <v>0</v>
@@ -749,19 +766,16 @@
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="K2">
-        <v>5</v>
-      </c>
       <c r="L2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4">
         <v>64</v>
@@ -777,19 +791,19 @@
       </c>
       <c r="G3" s="6"/>
       <c r="J3" s="5"/>
-      <c r="K3">
-        <v>5</v>
-      </c>
       <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" s="4">
         <v>78</v>
@@ -804,19 +818,19 @@
         <v>207.499</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="K4">
-        <v>5</v>
-      </c>
       <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -829,19 +843,16 @@
       </c>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="K5">
-        <v>5</v>
-      </c>
       <c r="L5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4">
         <v>302</v>
@@ -856,19 +867,19 @@
         <v>142.738</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="K6">
-        <v>5</v>
-      </c>
       <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -881,19 +892,16 @@
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
-      <c r="K7">
-        <v>5</v>
-      </c>
       <c r="L7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4">
         <v>59</v>
@@ -908,19 +916,19 @@
         <v>85.242000000000004</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="K8">
-        <v>5</v>
-      </c>
       <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="M8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
@@ -933,19 +941,16 @@
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="K9">
-        <v>5</v>
-      </c>
       <c r="L9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="C10" s="4">
         <v>25</v>
@@ -960,19 +965,19 @@
         <v>120.879</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="K10">
-        <v>5</v>
-      </c>
       <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="4">
         <v>3</v>
@@ -987,10 +992,10 @@
         <v>126.504</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="K11">
-        <v>5</v>
-      </c>
       <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
         <v>4</v>
       </c>
     </row>

--- a/Data/Input/With_observations/Zadatak 1/Zadatak_1.xlsx
+++ b/Data/Input/With_observations/Zadatak 1/Zadatak_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="6180" yWindow="765" windowWidth="16095" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
   <si>
     <t>HzD</t>
   </si>
@@ -111,6 +111,18 @@
   </si>
   <si>
     <t>h</t>
+  </si>
+  <si>
+    <t>e_cent_from</t>
+  </si>
+  <si>
+    <t>e_cent_to</t>
+  </si>
+  <si>
+    <t>e_focus</t>
+  </si>
+  <si>
+    <t>e_air</t>
   </si>
 </sst>
 </file>
@@ -492,7 +504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -687,15 +699,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -747,8 +759,20 @@
       <c r="Q1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>14</v>
       </c>
@@ -769,8 +793,20 @@
       <c r="L2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>14</v>
       </c>
@@ -797,8 +833,20 @@
       <c r="M3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>14</v>
       </c>
@@ -824,8 +872,20 @@
       <c r="M4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
@@ -846,8 +906,20 @@
       <c r="L5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>15</v>
       </c>
@@ -873,8 +945,20 @@
       <c r="M6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>16</v>
       </c>
@@ -895,8 +979,20 @@
       <c r="L7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>16</v>
       </c>
@@ -922,8 +1018,20 @@
       <c r="M8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>17</v>
       </c>
@@ -944,8 +1052,20 @@
       <c r="L9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -971,8 +1091,20 @@
       <c r="M10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
@@ -997,6 +1129,18 @@
       </c>
       <c r="M11">
         <v>4</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
